--- a/municipal/სოციალური სტატისტიკა/პენსიის მიმღებები/კახეთი/თელავი.xlsx
+++ b/municipal/სოციალური სტატისტიკა/პენსიის მიმღებები/კახეთი/თელავი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\პენსიის მიმღებები\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\სოციალური სტატისტიკა\პენსიის მიმღებები\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="თელავი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,25 +617,25 @@
         <v>11871</v>
       </c>
       <c r="E4" s="7">
-        <v>8019</v>
+        <v>12138</v>
       </c>
       <c r="F4" s="7">
-        <v>8120</v>
+        <v>12326</v>
       </c>
       <c r="G4" s="8">
-        <v>8181</v>
+        <v>12492</v>
       </c>
       <c r="H4" s="8">
-        <v>8290</v>
+        <v>12672</v>
       </c>
       <c r="I4" s="8">
-        <v>8456</v>
+        <v>12953</v>
       </c>
       <c r="J4" s="8">
-        <v>8663</v>
+        <v>13314</v>
       </c>
       <c r="K4" s="8">
-        <v>8812</v>
+        <v>13522</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
